--- a/2 course/2 term/electrical engineering/labs/lab 3/lab3.xlsx
+++ b/2 course/2 term/electrical engineering/labs/lab 3/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Лабы\Электроника\Лабы тест\лаб3\98\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\education\2 course\2 term\electrical engineering\labs\lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9D499-305B-46E8-99FE-9ED476DB9F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1AA8C-1C96-4DCD-ADF8-8A56FC199B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -844,7 +844,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>U</a:t>
+                  <a:t>|U</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1200" baseline="-25000"/>
@@ -852,7 +852,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1200"/>
-                  <a:t>, В</a:t>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>|, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>В</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1570,6 +1578,72 @@
         <c:axId val="454327960"/>
         <c:axId val="454329760"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$U$21:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$V$21:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1171-46EF-8076-6D23CEC594C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454327960"/>
+        <c:axId val="454329760"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="454327960"/>
         <c:scaling>
@@ -1708,6 +1782,7 @@
         <c:axId val="454329760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1746,7 +1821,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>U</a:t>
+                  <a:t>|U</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1200" baseline="-25000"/>
@@ -1754,7 +1829,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1200"/>
-                  <a:t>, В</a:t>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>|,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200"/>
+                  <a:t>В</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1847,14 +1934,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.61389671540367785"/>
           <c:y val="0.36035940686404005"/>
-          <c:w val="0.32837131333632347"/>
-          <c:h val="0.24324487671281078"/>
+          <c:w val="0.21218481917325135"/>
+          <c:h val="0.23035826916040703"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3636,28 +3727,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R100"/>
+  <dimension ref="A2:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R20" sqref="Q10:R20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
-    <col min="9" max="9" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="2"/>
-    <col min="11" max="12" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2"/>
+    <col min="11" max="12" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K2" s="2">
         <f>K17-K16</f>
         <v>0.79999999999999716</v>
@@ -3667,7 +3757,7 @@
         <v>331.95020746884472</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K3" s="2">
         <f>L17-L16</f>
         <v>2.4100000000002453E-3</v>
@@ -3681,7 +3771,7 @@
         <v>592.59259259241207</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M4" s="2">
         <f>M19-M18</f>
         <v>0.79999999999999716</v>
@@ -3695,7 +3785,7 @@
         <v>1.3500000000004064E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f>B16-B15</f>
         <v>-3.1900000000000261E-3</v>
@@ -3733,7 +3823,7 @@
         <v>451.97740113004272</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f>C15-C16</f>
         <v>-1.937443744374423E-2</v>
@@ -3751,40 +3841,40 @@
         <v>1.7699999999996052E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3837,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3890,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1000</v>
       </c>
@@ -3898,7 +3988,7 @@
         <v>5.2229999999999999</v>
       </c>
       <c r="C11" s="2">
-        <f>B11/A11</f>
+        <f t="shared" ref="C11:C24" si="0">B11/A11</f>
         <v>5.2230000000000002E-3</v>
       </c>
       <c r="D11" s="2">
@@ -3908,7 +3998,7 @@
         <v>5.1989999999999998</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/D11</f>
+        <f t="shared" ref="F11:F23" si="1">E11/D11</f>
         <v>5.1989999999999996E-3</v>
       </c>
       <c r="G11" s="2">
@@ -3918,7 +4008,7 @@
         <v>5.2510000000000003</v>
       </c>
       <c r="I11" s="2">
-        <f>H11/G11</f>
+        <f t="shared" ref="I11:I23" si="2">H11/G11</f>
         <v>5.2510000000000005E-3</v>
       </c>
       <c r="K11" s="2">
@@ -3946,7 +4036,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -3954,7 +4044,7 @@
         <v>5.1980000000000004</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/A12</f>
+        <f t="shared" si="0"/>
         <v>5.1980000000000005E-2</v>
       </c>
       <c r="D12" s="2">
@@ -3964,7 +4054,7 @@
         <v>5.173</v>
       </c>
       <c r="F12" s="2">
-        <f>E12/D12</f>
+        <f t="shared" si="1"/>
         <v>5.1729999999999998E-2</v>
       </c>
       <c r="G12" s="2">
@@ -3974,7 +4064,7 @@
         <v>5.226</v>
       </c>
       <c r="I12" s="2">
-        <f>H12/G12</f>
+        <f t="shared" si="2"/>
         <v>5.2260000000000001E-2</v>
       </c>
       <c r="K12" s="2">
@@ -4002,7 +4092,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>20</v>
       </c>
@@ -4010,7 +4100,7 @@
         <v>5.1340000000000003</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/A13</f>
+        <f t="shared" si="0"/>
         <v>0.25670000000000004</v>
       </c>
       <c r="D13" s="2">
@@ -4020,7 +4110,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/D13</f>
+        <f t="shared" si="1"/>
         <v>0.2555</v>
       </c>
       <c r="G13" s="2">
@@ -4030,7 +4120,7 @@
         <v>5.165</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/G13</f>
+        <f t="shared" si="2"/>
         <v>0.25824999999999998</v>
       </c>
       <c r="K13" s="2">
@@ -4058,7 +4148,7 @@
         <v>5.069</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -4066,7 +4156,7 @@
         <v>5.0839999999999996</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/A14</f>
+        <f t="shared" si="0"/>
         <v>0.50839999999999996</v>
       </c>
       <c r="D14" s="2">
@@ -4076,7 +4166,7 @@
         <v>5.05</v>
       </c>
       <c r="F14" s="2">
-        <f>E14/D14</f>
+        <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
       <c r="G14" s="2">
@@ -4086,7 +4176,7 @@
         <v>5.1189999999999998</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/G14</f>
+        <f t="shared" si="2"/>
         <v>0.51190000000000002</v>
       </c>
       <c r="K14" s="2">
@@ -4114,7 +4204,7 @@
         <v>5.0949999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5.05</v>
       </c>
@@ -4122,7 +4212,7 @@
         <v>5.0042200000000001</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/A15</f>
+        <f t="shared" si="0"/>
         <v>0.99093465346534659</v>
       </c>
       <c r="D15" s="2">
@@ -4132,7 +4222,7 @@
         <v>4.9599799999999998</v>
       </c>
       <c r="F15" s="2">
-        <f>E15/D15</f>
+        <f t="shared" si="1"/>
         <v>0.9821742574257426</v>
       </c>
       <c r="G15" s="2">
@@ -4142,7 +4232,7 @@
         <v>5.0512800000000002</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/G15</f>
+        <f t="shared" si="2"/>
         <v>1.0002534653465347</v>
       </c>
       <c r="K15" s="2">
@@ -4170,7 +4260,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4.95</v>
       </c>
@@ -4178,7 +4268,7 @@
         <v>5.0010300000000001</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/A16</f>
+        <f t="shared" si="0"/>
         <v>1.0103090909090908</v>
       </c>
       <c r="D16" s="2">
@@ -4188,7 +4278,7 @@
         <v>4.9561299999999999</v>
       </c>
       <c r="F16" s="2">
-        <f>E16/D16</f>
+        <f t="shared" si="1"/>
         <v>1.0012383838383838</v>
       </c>
       <c r="G16" s="2">
@@ -4198,7 +4288,7 @@
         <v>5.0486800000000001</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/G16</f>
+        <f t="shared" si="2"/>
         <v>1.0199353535353535</v>
       </c>
       <c r="K16" s="2">
@@ -4226,7 +4316,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -4234,7 +4324,7 @@
         <v>4.88</v>
       </c>
       <c r="C17" s="2">
-        <f>B17/A17</f>
+        <f t="shared" si="0"/>
         <v>1.6266666666666667</v>
       </c>
       <c r="D17" s="2">
@@ -4244,7 +4334,7 @@
         <v>4.79</v>
       </c>
       <c r="F17" s="2">
-        <f>E17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.5966666666666667</v>
       </c>
       <c r="G17" s="2">
@@ -4254,7 +4344,7 @@
         <v>4.96</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/G17</f>
+        <f t="shared" si="2"/>
         <v>1.6533333333333333</v>
       </c>
       <c r="K17" s="2">
@@ -4282,7 +4372,7 @@
         <v>5.2259099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2.7</v>
       </c>
@@ -4290,7 +4380,7 @@
         <v>4.82</v>
       </c>
       <c r="C18" s="2">
-        <f>B18/A18</f>
+        <f t="shared" si="0"/>
         <v>1.7851851851851852</v>
       </c>
       <c r="D18" s="2">
@@ -4300,7 +4390,7 @@
         <v>4.72</v>
       </c>
       <c r="F18" s="2">
-        <f>E18/D18</f>
+        <f t="shared" si="1"/>
         <v>1.6857142857142857</v>
       </c>
       <c r="G18" s="2">
@@ -4310,7 +4400,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/G18</f>
+        <f t="shared" si="2"/>
         <v>2.1086956521739131</v>
       </c>
       <c r="K18" s="2">
@@ -4338,7 +4428,7 @@
         <v>5.2272600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2.5</v>
       </c>
@@ -4346,7 +4436,7 @@
         <v>4.74</v>
       </c>
       <c r="C19" s="2">
-        <f>B19/A19</f>
+        <f t="shared" si="0"/>
         <v>1.8960000000000001</v>
       </c>
       <c r="D19" s="2">
@@ -4356,7 +4446,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="F19" s="2">
-        <f>E19/D19</f>
+        <f t="shared" si="1"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="G19" s="2">
@@ -4366,7 +4456,7 @@
         <v>4.8</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/G19</f>
+        <f t="shared" si="2"/>
         <v>2.1818181818181817</v>
       </c>
       <c r="K19" s="2">
@@ -4394,7 +4484,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2.4</v>
       </c>
@@ -4402,7 +4492,7 @@
         <v>4.63</v>
       </c>
       <c r="C20" s="2">
-        <f>B20/A20</f>
+        <f t="shared" si="0"/>
         <v>1.9291666666666667</v>
       </c>
       <c r="D20" s="2">
@@ -4412,7 +4502,7 @@
         <v>4.37</v>
       </c>
       <c r="F20" s="2">
-        <f>E20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.748</v>
       </c>
       <c r="G20" s="2">
@@ -4422,7 +4512,7 @@
         <v>4.7</v>
       </c>
       <c r="I20" s="2">
-        <f>H20/G20</f>
+        <f t="shared" si="2"/>
         <v>2.2380952380952381</v>
       </c>
       <c r="M20" s="2">
@@ -4444,7 +4534,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -4452,7 +4542,7 @@
         <v>4.47</v>
       </c>
       <c r="C21" s="2">
-        <f>B21/A21</f>
+        <f t="shared" si="0"/>
         <v>1.9434782608695653</v>
       </c>
       <c r="D21" s="2">
@@ -4462,7 +4552,7 @@
         <v>3.55</v>
       </c>
       <c r="F21" s="2">
-        <f>E21/D21</f>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="G21" s="2">
@@ -4472,7 +4562,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="I21" s="2">
-        <f>H21/G21</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="M21" s="2">
@@ -4487,8 +4577,14 @@
       <c r="P21" s="2">
         <v>5.12</v>
       </c>
+      <c r="U21" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4496,7 +4592,7 @@
         <v>3.92</v>
       </c>
       <c r="C22" s="2">
-        <f>B22/A22</f>
+        <f t="shared" si="0"/>
         <v>1.96</v>
       </c>
       <c r="D22" s="2">
@@ -4506,7 +4602,7 @@
         <v>1.83</v>
       </c>
       <c r="F22" s="2">
-        <f>E22/D22</f>
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
       <c r="G22" s="2">
@@ -4516,7 +4612,7 @@
         <v>2.33</v>
       </c>
       <c r="I22" s="2">
-        <f>H22/G22</f>
+        <f t="shared" si="2"/>
         <v>2.33</v>
       </c>
       <c r="O22" s="2">
@@ -4525,8 +4621,14 @@
       <c r="P22" s="2">
         <v>5.14</v>
       </c>
+      <c r="U22" s="2">
+        <v>40</v>
+      </c>
+      <c r="V22" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -4534,7 +4636,7 @@
         <v>2.02</v>
       </c>
       <c r="C23" s="2">
-        <f>B23/A23</f>
+        <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
       <c r="D23" s="2">
@@ -4544,7 +4646,7 @@
         <v>0.93</v>
       </c>
       <c r="F23" s="2">
-        <f>E23/D23</f>
+        <f t="shared" si="1"/>
         <v>1.86</v>
       </c>
       <c r="G23" s="2">
@@ -4554,11 +4656,11 @@
         <v>1.18</v>
       </c>
       <c r="I23" s="2">
-        <f>H23/G23</f>
+        <f t="shared" si="2"/>
         <v>2.36</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0.5</v>
       </c>
@@ -4566,7 +4668,7 @@
         <v>1.024</v>
       </c>
       <c r="C24" s="2">
-        <f>B24/A24</f>
+        <f t="shared" si="0"/>
         <v>2.048</v>
       </c>
       <c r="D24" s="2">
@@ -4588,7 +4690,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -4599,12 +4701,12 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="2">
         <v>0</v>
       </c>
@@ -4612,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="2">
         <v>5.5</v>
       </c>
@@ -4621,8 +4723,8 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="4"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
